--- a/demofiles/test.xlsx
+++ b/demofiles/test.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
   <si>
     <t>product&gt;name</t>
   </si>
@@ -23,7 +23,34 @@
     <t>product&gt;price</t>
   </si>
   <si>
-    <t>TestP</t>
+    <t>TestProduct1</t>
+  </si>
+  <si>
+    <t>TestProduct2</t>
+  </si>
+  <si>
+    <t>TestProduct3</t>
+  </si>
+  <si>
+    <t>TestProduct4</t>
+  </si>
+  <si>
+    <t>TestProduct5</t>
+  </si>
+  <si>
+    <t>TestProduct6</t>
+  </si>
+  <si>
+    <t>TestProduct7</t>
+  </si>
+  <si>
+    <t>TestProduct8</t>
+  </si>
+  <si>
+    <t>TestProduct9</t>
+  </si>
+  <si>
+    <t>TestProduct10</t>
   </si>
 </sst>
 </file>
@@ -385,7 +412,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>88.56</v>
@@ -393,7 +420,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>88.56</v>
@@ -401,7 +428,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>88.56</v>
@@ -409,7 +436,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>88.56</v>
@@ -417,7 +444,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>88.56</v>
@@ -425,7 +452,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>88.56</v>
@@ -433,7 +460,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>88.56</v>
@@ -441,7 +468,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>88.56</v>
@@ -449,7 +476,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>88.56</v>
